--- a/Codigos/TIF.xlsx
+++ b/Codigos/TIF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmartinez/Google Drive/ULasalle/2020-I/Riesgos/Github/Riesgos/Codigos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBE4773-AEDC-4F4D-B36F-7491B2B13406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E944092-D8CF-2E4F-9E41-A97A85A17E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="960" windowWidth="27840" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm1" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -72,17 +72,56 @@
   <si>
     <t>2X4</t>
   </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>Histórico</t>
+  </si>
+  <si>
+    <t>Valor Esperado</t>
+  </si>
+  <si>
+    <t>Valor Esperado ^2</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Desv</t>
+  </si>
+  <si>
+    <t>Optimo</t>
+  </si>
+  <si>
+    <t>Malo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;COP&quot;_-;\-* #,##0\ &quot;COP&quot;_-;_-* &quot;-&quot;\ &quot;COP&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="0.00000%"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -220,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +439,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -517,7 +568,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -562,17 +613,28 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -615,6 +677,7 @@
     <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Währung [0]" xfId="44" builtinId="7"/>
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
@@ -3694,7 +3757,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0B4173D7-BF36-D04A-BB6B-F11B74FE0E3F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3788,8 +3851,8 @@
       <xdr:rowOff>33161</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="436034" cy="181332"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Textfeld 3">
@@ -3831,6 +3894,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3877,7 +3941,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="Textfeld 3">
@@ -4240,10 +4304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:W256"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4251,9 +4315,16 @@
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.5" customWidth="1"/>
+    <col min="10" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4270,7 +4341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>43691</v>
       </c>
@@ -4307,8 +4378,16 @@
       <c r="M2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="R2" s="10">
+        <f>+R10*3700</f>
+        <v>545796.28322615498</v>
+      </c>
+      <c r="W2" s="10">
+        <f>+W10*3700</f>
+        <v>494354.11547732027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>43692</v>
       </c>
@@ -4354,7 +4433,7 @@
         <v>0.39409535519277061</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>43693</v>
       </c>
@@ -4400,8 +4479,20 @@
         <f>+J4*SQRT(250)</f>
         <v>0.16076495452242609</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" s="10">
+        <f>10*O13*3700</f>
+        <v>4617600.1110000005</v>
+      </c>
+      <c r="R4" s="10">
+        <f>10*R16*3700</f>
+        <v>3906628.0662582284</v>
+      </c>
+      <c r="W4" s="10">
+        <f>10*W16*3700</f>
+        <v>4313149.2421216462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>43696</v>
       </c>
@@ -4434,8 +4525,16 @@
       <c r="J5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="R5" s="11">
+        <f>+O4-R4</f>
+        <v>710972.04474177212</v>
+      </c>
+      <c r="W5" s="11">
+        <f>+O4-W4</f>
+        <v>304450.86887835432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>43697</v>
       </c>
@@ -4462,8 +4561,26 @@
         <f t="shared" si="3"/>
         <v>1.2790970720217554E-11</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4">
+        <f>+(1+M6)^(1/252)-1</f>
+        <v>3.5698287639274184E-6</v>
+      </c>
+      <c r="K6" s="8">
+        <f>+(1+M6)^(1/52)-1</f>
+        <v>1.7300058160252263E-5</v>
+      </c>
+      <c r="L6" s="8">
+        <f>+(1+M6)^(1/12)-1</f>
+        <v>7.4969080277487166E-5</v>
+      </c>
+      <c r="M6" s="7">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>43698</v>
       </c>
@@ -4490,8 +4607,20 @@
         <f t="shared" si="3"/>
         <v>2.3310665656588429E-9</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="T7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>43699</v>
       </c>
@@ -4518,8 +4647,14 @@
         <f t="shared" si="3"/>
         <v>3.0116669860861902E-10</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>43700</v>
       </c>
@@ -4546,8 +4681,19 @@
         <f t="shared" si="3"/>
         <v>8.115219880196081E-9</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <f>+EXP(K3)</f>
+        <v>1.0573158711033448</v>
+      </c>
+      <c r="K9">
+        <f>+EXP(K4)</f>
+        <v>1.0229960214937313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>43703</v>
       </c>
@@ -4574,8 +4720,27 @@
         <f t="shared" si="3"/>
         <v>1.682191956917888E-9</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <f>+EXP(-K3)</f>
+        <v>0.94579115601136898</v>
+      </c>
+      <c r="K10">
+        <f>+EXP(-K4)</f>
+        <v>0.9775209081848103</v>
+      </c>
+      <c r="R10">
+        <f>+Q11*J9</f>
+        <v>147.5125089800419</v>
+      </c>
+      <c r="W10">
+        <f>+V11*K9</f>
+        <v>133.60922039927576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>43704</v>
       </c>
@@ -4602,8 +4767,16 @@
         <f t="shared" si="3"/>
         <v>9.4529413072080221E-11</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="Q11">
+        <f>+P12*J9</f>
+        <v>139.51602639437127</v>
+      </c>
+      <c r="V11">
+        <f>+U12*K9</f>
+        <v>130.60580646656453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>43705</v>
       </c>
@@ -4630,8 +4803,35 @@
         <f t="shared" si="3"/>
         <v>3.6084925274903954E-9</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <f>+((1+K6)-J10)/(J9-J10)</f>
+        <v>0.48622535374396875</v>
+      </c>
+      <c r="K12">
+        <f>+((1+K6)-K10)/(K9-K10)</f>
+        <v>0.49469677448691007</v>
+      </c>
+      <c r="P12">
+        <f>+O13*J9</f>
+        <v>131.95302388564505</v>
+      </c>
+      <c r="R12">
+        <f>+Q11*J10</f>
+        <v>131.95302388564508</v>
+      </c>
+      <c r="U12">
+        <f>+T13*K9</f>
+        <v>127.66990655140573</v>
+      </c>
+      <c r="W12">
+        <f>+U12</f>
+        <v>127.66990655140573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>43706</v>
       </c>
@@ -4658,8 +4858,35 @@
         <f t="shared" si="3"/>
         <v>8.0416061159587852E-11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <f>1-J12</f>
+        <v>0.51377464625603131</v>
+      </c>
+      <c r="K13">
+        <f>1-K12</f>
+        <v>0.50530322551308993</v>
+      </c>
+      <c r="O13" s="2">
+        <f>+B254</f>
+        <v>124.800003</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>+O13</f>
+        <v>124.800003</v>
+      </c>
+      <c r="T13" s="2">
+        <f>+O13</f>
+        <v>124.800003</v>
+      </c>
+      <c r="V13" s="2">
+        <f>+T13</f>
+        <v>124.800003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>43707</v>
       </c>
@@ -4686,8 +4913,24 @@
         <f t="shared" si="3"/>
         <v>2.7853936140908009E-10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="P14">
+        <f>+O13*J10</f>
+        <v>118.03473910759232</v>
+      </c>
+      <c r="R14">
+        <f>+P14</f>
+        <v>118.03473910759232</v>
+      </c>
+      <c r="U14">
+        <f>+T13*K10</f>
+        <v>121.99461227402705</v>
+      </c>
+      <c r="W14">
+        <f>+U14</f>
+        <v>121.99461227402705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>43711</v>
       </c>
@@ -4714,8 +4957,16 @@
         <f t="shared" si="3"/>
         <v>3.8363004461078474E-9</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="Q15">
+        <f>+P14*J10</f>
+        <v>111.63621235007008</v>
+      </c>
+      <c r="V15">
+        <f>+U14*K10</f>
+        <v>119.25228418376072</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>43712</v>
       </c>
@@ -4742,8 +4993,16 @@
         <f t="shared" si="3"/>
         <v>2.9788255056147659E-9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="R16">
+        <f>+Q15*J10</f>
+        <v>105.58454233130345</v>
+      </c>
+      <c r="W16">
+        <f>+V15*K10</f>
+        <v>116.57160113842286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>43713</v>
       </c>
@@ -4771,7 +5030,7 @@
         <v>9.4397848780100484E-9</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>43714</v>
       </c>
@@ -4798,8 +5057,32 @@
         <f t="shared" si="3"/>
         <v>6.3973187342738114E-13</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>43717</v>
       </c>
@@ -4827,7 +5110,7 @@
         <v>6.7686921935614705E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>43718</v>
       </c>
@@ -4854,8 +5137,38 @@
         <f t="shared" si="3"/>
         <v>5.3219252161761924E-9</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="O20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20">
+        <f>+P12*J12+J13*P14</f>
+        <v>124.8021620473103</v>
+      </c>
+      <c r="Q20">
+        <f>+Q11*J12^2+2*Q13*J12*J13+Q15*J13^2</f>
+        <v>124.80432113197226</v>
+      </c>
+      <c r="R20">
+        <f>+R10*J12^3+3*R12*J12^2*J13+3*R14*J12*J13^2+R16*J13^3</f>
+        <v>124.80648025398651</v>
+      </c>
+      <c r="T20" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <f>+U12*K12+K13*U14</f>
+        <v>124.8021620473103</v>
+      </c>
+      <c r="V20">
+        <f>+V11*K12^2+2*V13*K12*K13+V15*K13^2</f>
+        <v>124.80432113197226</v>
+      </c>
+      <c r="W20">
+        <f>+W10*K12^3+3*W12*K12^2*K13+3*W14*K12*K13^2+W16*K13^3</f>
+        <v>124.80648025398649</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>43719</v>
       </c>
@@ -4882,8 +5195,38 @@
         <f t="shared" si="3"/>
         <v>7.807949011651128E-10</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <f>+P12^2*J12+J13*P14^2</f>
+        <v>15623.972558126603</v>
+      </c>
+      <c r="Q21">
+        <f>+Q11^2*J12^2+2*Q13^2*J12*J13+Q15^2*J13^2</f>
+        <v>15673.058095588009</v>
+      </c>
+      <c r="R21">
+        <f>+R10^2*J12^3+3*R12^2*J12^2*J13+3*R14^2*J12*J13^2+R16^2*J13^3</f>
+        <v>15722.297844148989</v>
+      </c>
+      <c r="T21" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21">
+        <f>+U12^2*K12+K13*U14^2</f>
+        <v>15583.630987115408</v>
+      </c>
+      <c r="V21">
+        <f>+V11^2*K12^2+2*V13^2*K12*K13+V15^2*K13^2</f>
+        <v>15592.225963280005</v>
+      </c>
+      <c r="W21">
+        <f>+W10^2*K12^3+3*W12^2*K12^2*K13+3*W14^2*K12*K13^2+W16^2*K13^3</f>
+        <v>15600.825679906908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>43720</v>
       </c>
@@ -4910,8 +5253,38 @@
         <f t="shared" si="3"/>
         <v>1.7994537864090038E-9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22">
+        <f>+P21-P20^2</f>
+        <v>48.392906443503307</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:R22" si="5">+Q21-Q20^2</f>
+        <v>96.939522375550951</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="5"/>
+        <v>145.64033076026499</v>
+      </c>
+      <c r="T22" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22">
+        <f>+U21-U20^2</f>
+        <v>8.0513354323084059</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ref="V22" si="6">+V21-V20^2</f>
+        <v>16.107390067547385</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ref="W22" si="7">+W21-W20^2</f>
+        <v>24.168166518187718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>43721</v>
       </c>
@@ -4938,8 +5311,38 @@
         <f t="shared" si="3"/>
         <v>2.0993597369476901E-9</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="O23" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23">
+        <f>+SQRT(P22)</f>
+        <v>6.9565010201611637</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" ref="Q23:R23" si="8">+SQRT(Q22)</f>
+        <v>9.8457870368778018</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>12.068153577091444</v>
+      </c>
+      <c r="T23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23">
+        <f>+SQRT(U22)</f>
+        <v>2.837487521084173</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ref="V23" si="9">+SQRT(V22)</f>
+        <v>4.0134013090578655</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ref="W23" si="10">+SQRT(W22)</f>
+        <v>4.9161129480706318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>43724</v>
       </c>
@@ -4966,8 +5369,38 @@
         <f t="shared" si="3"/>
         <v>2.8066473113240782E-9</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="O24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="12">
+        <f>+P20+P23</f>
+        <v>131.75866306747147</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" ref="Q24:R24" si="11">+Q20+Q23</f>
+        <v>134.65010816885007</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="11"/>
+        <v>136.87463383107794</v>
+      </c>
+      <c r="T24" t="s">
+        <v>23</v>
+      </c>
+      <c r="U24" s="12">
+        <f>+U23+U20</f>
+        <v>127.63964956839447</v>
+      </c>
+      <c r="V24" s="12">
+        <f t="shared" ref="V24:W24" si="12">+V23+V20</f>
+        <v>128.81772244103013</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="12"/>
+        <v>129.72259320205711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>43725</v>
       </c>
@@ -4994,8 +5427,38 @@
         <f t="shared" si="3"/>
         <v>1.1207856526664323E-9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="13">
+        <f>+P20-P23</f>
+        <v>117.84566102714913</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" ref="Q25:R25" si="13">+Q20-Q23</f>
+        <v>114.95853409509445</v>
+      </c>
+      <c r="R25" s="13">
+        <f t="shared" si="13"/>
+        <v>112.73832667689507</v>
+      </c>
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" s="13">
+        <f>+U20-U23</f>
+        <v>121.96467452622613</v>
+      </c>
+      <c r="V25" s="13">
+        <f t="shared" ref="V25:W25" si="14">+V20-V23</f>
+        <v>120.79091982291439</v>
+      </c>
+      <c r="W25" s="13">
+        <f t="shared" si="14"/>
+        <v>119.89036730591586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>43726</v>
       </c>
@@ -5023,7 +5486,7 @@
         <v>3.1714314748630083E-9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>43727</v>
       </c>
@@ -5050,8 +5513,24 @@
         <f t="shared" si="3"/>
         <v>4.4490441439322661E-9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="O27" s="11">
+        <f>+O4</f>
+        <v>4617600.1110000005</v>
+      </c>
+      <c r="R27" s="10">
+        <f>10*R25*3700</f>
+        <v>4171318.0870451177</v>
+      </c>
+      <c r="T27" s="11">
+        <f>+O27</f>
+        <v>4617600.1110000005</v>
+      </c>
+      <c r="W27" s="10">
+        <f>+W25*10*3700</f>
+        <v>4435943.5903188866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>43728</v>
       </c>
@@ -5078,8 +5557,16 @@
         <f t="shared" si="3"/>
         <v>1.7716216322597412E-12</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="R28" s="14">
+        <f>+R27-O27</f>
+        <v>-446282.02395488275</v>
+      </c>
+      <c r="W28" s="14">
+        <f>+W27-T27</f>
+        <v>-181656.52068111394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>43731</v>
       </c>
@@ -5107,7 +5594,7 @@
         <v>2.6734162957615586E-10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>43732</v>
       </c>
@@ -5135,7 +5622,7 @@
         <v>1.0847185654027522E-9</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>43733</v>
       </c>
@@ -5163,7 +5650,7 @@
         <v>1.7945823022503787E-9</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>43734</v>
       </c>
@@ -6179,11 +6666,11 @@
         <v>125.08000199999999</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="5">+LN(B68/B67)</f>
+        <f t="shared" ref="C68:C131" si="15">+LN(B68/B67)</f>
         <v>1.6687879439872655E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D131" si="6">+C68^2</f>
+        <f t="shared" ref="D68:D131" si="16">+C68^2</f>
         <v>2.7848532019972446E-4</v>
       </c>
       <c r="E68">
@@ -6191,11 +6678,11 @@
         <v>187</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" ref="F68:F131" si="7">+$J$5^(E68-1)</f>
+        <f t="shared" ref="F68:F131" si="17">+$J$5^(E68-1)</f>
         <v>7.1877106166902651E-5</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" ref="G68:G131" si="8">+F68*D68</f>
+        <f t="shared" ref="G68:G131" si="18">+F68*D68</f>
         <v>2.0016718925919474E-8</v>
       </c>
     </row>
@@ -6207,23 +6694,23 @@
         <v>124.58000199999999</v>
       </c>
       <c r="C69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-4.0054526994663976E-3</v>
       </c>
       <c r="D69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.604365132766265E-5</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E132" si="9">+E68-1</f>
+        <f t="shared" ref="E69:E132" si="19">+E68-1</f>
         <v>186</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>7.5660111754634359E-5</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.2138644524033441E-9</v>
       </c>
     </row>
@@ -6235,23 +6722,23 @@
         <v>123.5</v>
       </c>
       <c r="C70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-8.7069398119086691E-3</v>
       </c>
       <c r="D70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>7.5810800888200167E-5</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>185</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>7.9642222899615128E-5</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>6.0377407025363782E-9</v>
       </c>
     </row>
@@ -6263,23 +6750,23 @@
         <v>123.33000199999999</v>
       </c>
       <c r="C71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.3774502734807967E-3</v>
       </c>
       <c r="D71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.8973692559123216E-6</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>184</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>8.3833918841700136E-5</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.5906390021289054E-10</v>
       </c>
     </row>
@@ -6291,23 +6778,23 @@
         <v>126.5</v>
       </c>
       <c r="C72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.5378602373023813E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>6.4407345840804991E-4</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>183</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>8.8246230359684339E-5</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.6837054779235344E-8</v>
       </c>
     </row>
@@ -6319,23 +6806,23 @@
         <v>125.510002</v>
       </c>
       <c r="C73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-7.8568555602349238E-3</v>
       </c>
       <c r="D73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>6.1730179294394442E-5</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>182</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>9.2890768799667753E-5</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.7341638127976317E-9</v>
       </c>
     </row>
@@ -6347,23 +6834,23 @@
         <v>133.25</v>
       </c>
       <c r="C74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>5.9841610438613989E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3.5810183398868349E-3</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>181</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>9.7779756631229188E-5</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>3.501511017661031E-7</v>
       </c>
     </row>
@@ -6375,23 +6862,23 @@
         <v>133.220001</v>
       </c>
       <c r="C75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-2.2515855454022953E-4</v>
       </c>
       <c r="D75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.0696374682645517E-8</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>180</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.029260596118202E-4</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.2179780826891447E-12</v>
       </c>
     </row>
@@ -6403,23 +6890,23 @@
         <v>133.520004</v>
       </c>
       <c r="C76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.2494048202240818E-3</v>
       </c>
       <c r="D76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.0598220452473341E-6</v>
       </c>
       <c r="E76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>179</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.0834322064402127E-4</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.4819741626771487E-10</v>
       </c>
     </row>
@@ -6431,23 +6918,23 @@
         <v>133.800003</v>
       </c>
       <c r="C77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.094860804014611E-3</v>
       </c>
       <c r="D77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4.3884417881967426E-6</v>
       </c>
       <c r="E77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>178</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.1404549541475923E-4</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.0048201783372938E-10</v>
       </c>
     </row>
@@ -6459,23 +6946,23 @@
         <v>133.550003</v>
       </c>
       <c r="C78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.8702080961860532E-3</v>
       </c>
       <c r="D78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3.4976783230398616E-6</v>
       </c>
       <c r="E78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>177</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.2004788991027288E-4</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.1988890226583717E-10</v>
       </c>
     </row>
@@ -6487,23 +6974,23 @@
         <v>133.36000100000001</v>
       </c>
       <c r="C79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.4237160784275154E-3</v>
       </c>
       <c r="D79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.0269674719730228E-6</v>
       </c>
       <c r="E79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>176</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.2636619990555041E-4</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.5614017676539116E-10</v>
       </c>
     </row>
@@ -6515,23 +7002,23 @@
         <v>133.720001</v>
       </c>
       <c r="C80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.6958230891717502E-3</v>
       </c>
       <c r="D80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>7.2674621281115188E-6</v>
       </c>
       <c r="E80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>175</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.3301705253215831E-4</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>9.6669639167048094E-10</v>
       </c>
     </row>
@@ -6543,23 +7030,23 @@
         <v>133.550003</v>
       </c>
       <c r="C81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.2721070107441883E-3</v>
       </c>
       <c r="D81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.6182562467845144E-6</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>174</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.4001795003385086E-4</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.2658492230424116E-10</v>
       </c>
     </row>
@@ -6571,23 +7058,23 @@
         <v>133.550003</v>
       </c>
       <c r="C82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>173</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.4738731582510616E-4</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -6599,23 +7086,23 @@
         <v>133.479996</v>
       </c>
       <c r="C83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-5.2433810332991413E-4</v>
       </c>
       <c r="D83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.7493044660361168E-7</v>
       </c>
       <c r="E83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>172</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.5514454297379596E-4</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.2653958487898945E-11</v>
       </c>
     </row>
@@ -6627,23 +7114,23 @@
         <v>133.46000699999999</v>
       </c>
       <c r="C84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.4976399050518099E-4</v>
       </c>
       <c r="D84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.2429252852035944E-8</v>
       </c>
       <c r="E84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>171</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.6331004523557473E-4</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>3.6629222978661337E-12</v>
       </c>
     </row>
@@ -6655,23 +7142,23 @@
         <v>133.429993</v>
       </c>
       <c r="C85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-2.2491663326852597E-4</v>
       </c>
       <c r="D85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.0587491920848602E-8</v>
       </c>
       <c r="E85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>170</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.7190531077428917E-4</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>8.6962585199453213E-12</v>
       </c>
     </row>
@@ -6683,23 +7170,23 @@
         <v>133.570007</v>
       </c>
       <c r="C86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.0487941036274686E-3</v>
       </c>
       <c r="D86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.0999690718037453E-6</v>
       </c>
       <c r="E86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>169</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.8095295870977811E-4</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.9904265803213608E-10</v>
       </c>
     </row>
@@ -6711,23 +7198,23 @@
         <v>133.699997</v>
       </c>
       <c r="C87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>9.7272427361220788E-4</v>
       </c>
       <c r="D87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>9.4619251247439741E-7</v>
       </c>
       <c r="E87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>168</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.9047679864187168E-4</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.8022772067503246E-10</v>
       </c>
     </row>
@@ -6739,23 +7226,23 @@
         <v>133.60000600000001</v>
       </c>
       <c r="C88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-7.4815565687846538E-4</v>
       </c>
       <c r="D88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.59736886919248E-7</v>
       </c>
       <c r="E88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>167</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.0050189330723332E-4</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.1222830558120598E-10</v>
       </c>
     </row>
@@ -6767,23 +7254,23 @@
         <v>133.699997</v>
       </c>
       <c r="C89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>7.4815565687858996E-4</v>
       </c>
       <c r="D89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.5973688691943445E-7</v>
       </c>
       <c r="E89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>166</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.1105462453392982E-4</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.1813505850657197E-10</v>
       </c>
     </row>
@@ -6795,23 +7282,23 @@
         <v>133.64999399999999</v>
       </c>
       <c r="C90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-3.7406397805385524E-4</v>
       </c>
       <c r="D90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.399238596774751E-7</v>
       </c>
       <c r="E90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>165</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.2216276266729456E-4</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>3.1085871229018731E-11</v>
       </c>
     </row>
@@ -6823,23 +7310,23 @@
         <v>133.449997</v>
       </c>
       <c r="C91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.497544321345612E-3</v>
       </c>
       <c r="D91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.2426389943944896E-6</v>
       </c>
       <c r="E91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>164</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.338555396497837E-4</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.2445355227377162E-10</v>
       </c>
     </row>
@@ -6851,23 +7338,23 @@
         <v>133.53999300000001</v>
       </c>
       <c r="C92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>6.7415264076729948E-4</v>
       </c>
       <c r="D92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4.5448178305352352E-7</v>
       </c>
       <c r="E92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>163</v>
       </c>
       <c r="F92" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.4616372594714081E-4</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.1187692909155547E-10</v>
       </c>
     </row>
@@ -6879,23 +7366,23 @@
         <v>133.520004</v>
       </c>
       <c r="C93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.4969669933260062E-4</v>
       </c>
       <c r="D93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.2409101791075031E-8</v>
       </c>
       <c r="E93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>162</v>
       </c>
       <c r="F93" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.5911971152330608E-4</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.8066399915997632E-12</v>
       </c>
     </row>
@@ -6907,23 +7394,23 @@
         <v>133.58999600000001</v>
       </c>
       <c r="C94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>5.2406874772138723E-4</v>
       </c>
       <c r="D94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.7464805233826299E-7</v>
       </c>
       <c r="E94">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>161</v>
       </c>
       <c r="F94" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.7275759107716431E-4</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>7.4912341149819564E-11</v>
       </c>
     </row>
@@ -6935,23 +7422,23 @@
         <v>133.61999499999999</v>
       </c>
       <c r="C95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.2453501842304121E-4</v>
       </c>
       <c r="D95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.0415974498235458E-8</v>
       </c>
       <c r="E95">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>160</v>
       </c>
       <c r="F95" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>2.871132537654361E-4</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.4475094479943633E-11</v>
       </c>
     </row>
@@ -6963,23 +7450,23 @@
         <v>133.779999</v>
       </c>
       <c r="C96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.1967391375206111E-3</v>
       </c>
       <c r="D96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.432184563273576E-6</v>
       </c>
       <c r="E96">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>159</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.0222447764782746E-4</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.328412315306384E-10</v>
       </c>
     </row>
@@ -6991,23 +7478,23 @@
         <v>133.479996</v>
       </c>
       <c r="C97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-2.2450282991665228E-3</v>
       </c>
       <c r="D97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.0401520640585302E-6</v>
       </c>
       <c r="E97">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>158</v>
       </c>
       <c r="F97" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.181310291029763E-4</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.6034287629744304E-9</v>
       </c>
     </row>
@@ -7019,23 +7506,23 @@
         <v>133.64999399999999</v>
       </c>
       <c r="C98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.2727737754120803E-3</v>
       </c>
       <c r="D98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.6199530833767206E-6</v>
       </c>
       <c r="E98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>157</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.348747674768171E-4</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.4248141211913224E-10</v>
       </c>
     </row>
@@ -7047,23 +7534,23 @@
         <v>133.85000600000001</v>
       </c>
       <c r="C99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.4954171011100001E-3</v>
       </c>
       <c r="D99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.2362723062922363E-6</v>
       </c>
       <c r="E99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>156</v>
       </c>
       <c r="F99" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.5249975523875493E-4</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>7.8828544061521933E-10</v>
       </c>
     </row>
@@ -7075,23 +7562,23 @@
         <v>133.770004</v>
       </c>
       <c r="C100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-5.9787758309343185E-4</v>
       </c>
       <c r="D100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3.5745760436564349E-7</v>
       </c>
       <c r="E100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>155</v>
       </c>
       <c r="F100" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.7105237393553149E-4</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.3263549268118003E-10</v>
       </c>
     </row>
@@ -7103,23 +7590,23 @@
         <v>133.64999399999999</v>
       </c>
       <c r="C101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-8.9753951801656686E-4</v>
       </c>
       <c r="D101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.0557718640141114E-7</v>
       </c>
       <c r="E101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>154</v>
       </c>
       <c r="F101" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>3.9058144624792786E-4</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>3.1464350252899971E-10</v>
       </c>
     </row>
@@ -7131,23 +7618,23 @@
         <v>133.63000500000001</v>
       </c>
       <c r="C102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.4957348183203454E-4</v>
       </c>
       <c r="D102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.2372226467357969E-8</v>
       </c>
       <c r="E102">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>153</v>
       </c>
       <c r="F102" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4.1113836447150307E-4</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>9.1980805993756287E-12</v>
       </c>
     </row>
@@ -7159,23 +7646,23 @@
         <v>133.83999600000001</v>
       </c>
       <c r="C103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.5702025824200405E-3</v>
       </c>
       <c r="D103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.465536149838564E-6</v>
       </c>
       <c r="E103">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>152</v>
       </c>
       <c r="F103" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4.3277722575947689E-4</v>
       </c>
       <c r="G103" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.0670278949368357E-9</v>
       </c>
     </row>
@@ -7187,23 +7674,23 @@
         <v>133.78999300000001</v>
       </c>
       <c r="C104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-3.7367262741124868E-4</v>
       </c>
       <c r="D104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.3963123247642589E-7</v>
       </c>
       <c r="E104">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4.5555497448365983E-4</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>6.3609702547920169E-11</v>
       </c>
     </row>
@@ -7215,23 +7702,23 @@
         <v>133.83000200000001</v>
       </c>
       <c r="C105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.9899858789005123E-4</v>
       </c>
       <c r="D105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.940015556024469E-8</v>
       </c>
       <c r="E105">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>150</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>4.7953155208806309E-4</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.287019535271842E-11</v>
       </c>
     </row>
@@ -7243,23 +7730,23 @@
         <v>133.86000100000001</v>
       </c>
       <c r="C106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.2413239037246348E-4</v>
       </c>
       <c r="D106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.0235328414074364E-8</v>
       </c>
       <c r="E106">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>149</v>
       </c>
       <c r="F106" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5.0477005482953998E-4</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.5357289477952263E-11</v>
       </c>
     </row>
@@ -7271,23 +7758,23 @@
         <v>134.03999300000001</v>
       </c>
       <c r="C107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.3437255029035569E-3</v>
       </c>
       <c r="D107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.8055982271534171E-6</v>
       </c>
       <c r="E107">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>148</v>
       </c>
       <c r="F107" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5.3133689982056841E-4</v>
       </c>
       <c r="G107" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>9.593809643372111E-10</v>
       </c>
     </row>
@@ -7299,23 +7786,23 @@
         <v>134.08000200000001</v>
       </c>
       <c r="C108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.9844100434920029E-4</v>
       </c>
       <c r="D108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.9067033076959389E-8</v>
       </c>
       <c r="E108">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>147</v>
       </c>
       <c r="F108" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5.5930199981112474E-4</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.9815369717186979E-11</v>
       </c>
     </row>
@@ -7327,23 +7814,23 @@
         <v>134.11999499999999</v>
       </c>
       <c r="C109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.9823266773872049E-4</v>
       </c>
       <c r="D109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.8942724106554054E-8</v>
       </c>
       <c r="E109">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>146</v>
       </c>
       <c r="F109" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>5.887389471696049E-4</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.2364045748889269E-11</v>
       </c>
     </row>
@@ -7355,23 +7842,23 @@
         <v>134.25</v>
       </c>
       <c r="C110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>9.6884907099473855E-4</v>
       </c>
       <c r="D110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>9.3866852236736789E-7</v>
       </c>
       <c r="E110">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>145</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>6.1972520754695261E-4</v>
       </c>
       <c r="G110" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.8171654484190836E-10</v>
       </c>
     </row>
@@ -7383,23 +7870,23 @@
         <v>134.28999300000001</v>
       </c>
       <c r="C111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.9785507811268047E-4</v>
       </c>
       <c r="D111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.8717647557510989E-8</v>
       </c>
       <c r="E111">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>144</v>
       </c>
       <c r="F111" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>6.5234232373363428E-4</v>
       </c>
       <c r="G111" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.78742763638483E-11</v>
       </c>
     </row>
@@ -7411,23 +7898,23 @@
         <v>134.050003</v>
       </c>
       <c r="C112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.7887014054094965E-3</v>
       </c>
       <c r="D112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3.1994527177139081E-6</v>
       </c>
       <c r="E112">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>143</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>6.8667613024593079E-4</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.1969878111046127E-9</v>
       </c>
     </row>
@@ -7439,23 +7926,23 @@
         <v>134.21000699999999</v>
       </c>
       <c r="C113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.192902505103234E-3</v>
       </c>
       <c r="D113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.4230163866815713E-6</v>
       </c>
       <c r="E113">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>142</v>
       </c>
       <c r="F113" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>7.2281697920624293E-4</v>
       </c>
       <c r="G113" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.0285804059821562E-9</v>
       </c>
     </row>
@@ -7467,23 +7954,23 @@
         <v>134.28999300000001</v>
       </c>
       <c r="C114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>5.9579890030619215E-4</v>
       </c>
       <c r="D114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>3.5497632960606789E-7</v>
       </c>
       <c r="E114">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>141</v>
       </c>
       <c r="F114" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>7.608599781118347E-4</v>
       </c>
       <c r="G114" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.7008728237429226E-10</v>
       </c>
     </row>
@@ -7495,23 +7982,23 @@
         <v>134.08000200000001</v>
       </c>
       <c r="C115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.5649368168459987E-3</v>
       </c>
       <c r="D115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.4490272407200867E-6</v>
       </c>
       <c r="E115">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="F115" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>8.0090524011772082E-4</v>
       </c>
       <c r="G115" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.9614387502837604E-9</v>
       </c>
     </row>
@@ -7523,23 +8010,23 @@
         <v>134.08999600000001</v>
       </c>
       <c r="C116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>7.4534810599037886E-5</v>
       </c>
       <c r="D116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.5554379910344505E-9</v>
       </c>
       <c r="E116">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>139</v>
       </c>
       <c r="F116" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>8.4305814749233772E-4</v>
       </c>
       <c r="G116" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.683557261230058E-12</v>
       </c>
     </row>
@@ -7551,23 +8038,23 @@
         <v>134.08999600000001</v>
       </c>
       <c r="C117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>138</v>
       </c>
       <c r="F117" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>8.8742962893930278E-4</v>
       </c>
       <c r="G117" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7579,23 +8066,23 @@
         <v>134.08000200000001</v>
       </c>
       <c r="C118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-7.4534810599032967E-5</v>
       </c>
       <c r="D118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.5554379910337168E-9</v>
       </c>
       <c r="E118">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>137</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>9.3413645151505561E-4</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>5.1895371315561654E-12</v>
       </c>
     </row>
@@ -7607,23 +8094,23 @@
         <v>134.020004</v>
       </c>
       <c r="C119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-4.4757925892478697E-4</v>
       </c>
       <c r="D119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.0032719301966149E-7</v>
       </c>
       <c r="E119">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>136</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>9.8330152791058483E-4</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.9698203497827179E-10</v>
       </c>
     </row>
@@ -7635,23 +8122,23 @@
         <v>134.199997</v>
       </c>
       <c r="C120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.3421297915708751E-3</v>
       </c>
       <c r="D120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.8013123774220807E-6</v>
       </c>
       <c r="E120">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>135</v>
       </c>
       <c r="F120" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.0350542399058787E-3</v>
       </c>
       <c r="G120" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.8644560136456631E-9</v>
       </c>
     </row>
@@ -7663,23 +8150,23 @@
         <v>134.08000200000001</v>
       </c>
       <c r="C121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-8.9455053264601858E-4</v>
       </c>
       <c r="D121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.0022065545727555E-7</v>
       </c>
       <c r="E121">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>134</v>
       </c>
       <c r="F121" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.0895307788482936E-3</v>
       </c>
       <c r="G121" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>8.7186503399085746E-10</v>
       </c>
     </row>
@@ -7691,23 +8178,23 @@
         <v>134.220001</v>
       </c>
       <c r="C122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1.0436005303070845E-3</v>
       </c>
       <c r="D122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.089102066857228E-6</v>
       </c>
       <c r="E122">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>133</v>
       </c>
       <c r="F122" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.1468745040508353E-3</v>
       </c>
       <c r="G122" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.2490633927876231E-9</v>
       </c>
     </row>
@@ -7719,23 +8206,23 @@
         <v>134.11999499999999</v>
       </c>
       <c r="C123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-7.4536786256833916E-4</v>
       </c>
       <c r="D123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.555732505496945E-7</v>
       </c>
       <c r="E123">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>132</v>
       </c>
       <c r="F123" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.2072363200535108E-3</v>
       </c>
       <c r="G123" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>6.7070820651378035E-10</v>
       </c>
     </row>
@@ -7747,23 +8234,23 @@
         <v>134.11000100000001</v>
       </c>
       <c r="C124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-7.4518138564935317E-5</v>
       </c>
       <c r="D124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.5529529751829E-9</v>
       </c>
       <c r="E124">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>131</v>
       </c>
       <c r="F124" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.2707750737405378E-3</v>
       </c>
       <c r="G124" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>7.0565542265157881E-12</v>
       </c>
     </row>
@@ -7775,23 +8262,23 @@
         <v>134.21000699999999</v>
       </c>
       <c r="C125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>7.454233873661661E-4</v>
       </c>
       <c r="D125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>5.5565602643244936E-7</v>
       </c>
       <c r="E125">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.3376579723584608E-3</v>
       </c>
       <c r="G125" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>7.4327771364638955E-10</v>
       </c>
     </row>
@@ -7803,23 +8290,23 @@
         <v>134.270004</v>
       </c>
       <c r="C126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>4.4693830855608289E-4</v>
       </c>
       <c r="D126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.9975385165497235E-7</v>
       </c>
       <c r="E126">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>129</v>
       </c>
       <c r="F126" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.4080610235352219E-3</v>
       </c>
       <c r="G126" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.8126561281640325E-10</v>
       </c>
     </row>
@@ -7831,23 +8318,23 @@
         <v>134.30999800000001</v>
       </c>
       <c r="C127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>2.9781815472324115E-4</v>
       </c>
       <c r="D127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>8.8695653282756407E-8</v>
       </c>
       <c r="E127">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>128</v>
       </c>
       <c r="F127" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.4821694984581285E-3</v>
       </c>
       <c r="G127" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>1.3146199194151912E-10</v>
       </c>
     </row>
@@ -7859,23 +8346,23 @@
         <v>134.36000100000001</v>
       </c>
       <c r="C128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>3.7222615672340506E-4</v>
       </c>
       <c r="D128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>1.3855231174907689E-7</v>
       </c>
       <c r="E128">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>127</v>
       </c>
       <c r="F128" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.5601784194296088E-3</v>
       </c>
       <c r="G128" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>2.1616632675299321E-10</v>
       </c>
     </row>
@@ -7887,23 +8374,23 @@
         <v>134.270004</v>
       </c>
       <c r="C129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-6.7004431144679355E-4</v>
       </c>
       <c r="D129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>4.4895937930220769E-7</v>
       </c>
       <c r="E129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>126</v>
       </c>
       <c r="F129" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.6422930730837987E-3</v>
       </c>
       <c r="G129" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>7.3732287872401745E-10</v>
       </c>
     </row>
@@ -7915,23 +8402,23 @@
         <v>134.270004</v>
       </c>
       <c r="C130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>125</v>
       </c>
       <c r="F130" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.7287295506145249E-3</v>
       </c>
       <c r="G130" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7943,23 +8430,23 @@
         <v>134.25</v>
       </c>
       <c r="C131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-1.4899448636236437E-4</v>
       </c>
       <c r="D131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>2.219935696638478E-8</v>
       </c>
       <c r="E131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>124</v>
       </c>
       <c r="F131" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>1.8197153164363424E-3</v>
       </c>
       <c r="G131" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>4.0396509886768201E-11</v>
       </c>
     </row>
@@ -7971,23 +8458,23 @@
         <v>134.19000199999999</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:C195" si="10">+LN(B132/B131)</f>
+        <f t="shared" ref="C132:C195" si="20">+LN(B132/B131)</f>
         <v>-4.4701237186753015E-4</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D195" si="11">+C132^2</f>
+        <f t="shared" ref="D132:D195" si="21">+C132^2</f>
         <v>1.9982006060263507E-7</v>
       </c>
       <c r="E132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>123</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" ref="F132:F195" si="12">+$J$5^(E132-1)</f>
+        <f t="shared" ref="F132:F195" si="22">+$J$5^(E132-1)</f>
         <v>1.9154898067750973E-3</v>
       </c>
       <c r="G132" s="4">
-        <f t="shared" ref="G132:G195" si="13">+F132*D132</f>
+        <f t="shared" ref="G132:G195" si="23">+F132*D132</f>
         <v>3.8275328927352968E-10</v>
       </c>
     </row>
@@ -7999,23 +8486,23 @@
         <v>134.240005</v>
       </c>
       <c r="C133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.7255894851100839E-4</v>
       </c>
       <c r="D133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.3880017011562821E-7</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:E196" si="14">+E132-1</f>
+        <f t="shared" ref="E133:E196" si="24">+E132-1</f>
         <v>122</v>
       </c>
       <c r="F133" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.0163050597632598E-3</v>
       </c>
       <c r="G133" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.7986348530014235E-10</v>
       </c>
     </row>
@@ -8027,23 +8514,23 @@
         <v>133.96000699999999</v>
       </c>
       <c r="C134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-2.0879797852108857E-3</v>
       </c>
       <c r="D134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.3596595834492963E-6</v>
       </c>
       <c r="E134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>121</v>
       </c>
       <c r="F134" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.1224263786981689E-3</v>
       </c>
       <c r="G134" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>9.2530565020570576E-9</v>
       </c>
     </row>
@@ -8055,23 +8542,23 @@
         <v>133.75</v>
       </c>
       <c r="C135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.5689144042908005E-3</v>
       </c>
       <c r="D135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.4614924079911575E-6</v>
       </c>
       <c r="E135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>120</v>
       </c>
       <c r="F135" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.2341330302085988E-3</v>
       </c>
       <c r="G135" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5.4993014923007454E-9</v>
       </c>
     </row>
@@ -8083,23 +8570,23 @@
         <v>133.509995</v>
       </c>
       <c r="C136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.7960418244912192E-3</v>
       </c>
       <c r="D136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.2257662353217473E-6</v>
       </c>
       <c r="E136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>119</v>
       </c>
       <c r="F136" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.3517189791669455E-3</v>
       </c>
       <c r="G136" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>7.5860956779620605E-9</v>
       </c>
     </row>
@@ -8111,23 +8598,23 @@
         <v>133</v>
       </c>
       <c r="C137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-3.8272157298708917E-3</v>
       </c>
       <c r="D137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.4647580242971183E-5</v>
       </c>
       <c r="E137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>118</v>
       </c>
       <c r="F137" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.4754936622809957E-3</v>
       </c>
       <c r="G137" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>3.6259992059227488E-8</v>
       </c>
     </row>
@@ -8139,23 +8626,23 @@
         <v>133.58999600000001</v>
       </c>
       <c r="C138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.4262498376057115E-3</v>
       </c>
       <c r="D138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.9591687624904586E-5</v>
       </c>
       <c r="E138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>117</v>
       </c>
       <c r="F138" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.605782802401048E-3</v>
       </c>
       <c r="G138" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5.1051682682989808E-8</v>
       </c>
     </row>
@@ -8167,23 +8654,23 @@
         <v>133.66999799999999</v>
       </c>
       <c r="C139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>5.9868296180174069E-4</v>
       </c>
       <c r="D139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.5842128875170449E-7</v>
       </c>
       <c r="E139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>116</v>
       </c>
       <c r="F139" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.7429292656853134E-3</v>
       </c>
       <c r="G139" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>9.8312424236169648E-10</v>
       </c>
     </row>
@@ -8195,23 +8682,23 @@
         <v>133.36000100000001</v>
       </c>
       <c r="C140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-2.3218150801221512E-3</v>
       </c>
       <c r="D140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.3908252662826313E-6</v>
       </c>
       <c r="E140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>115</v>
       </c>
       <c r="F140" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.8872939638792776E-3</v>
       </c>
       <c r="G140" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.5564897251665742E-8</v>
       </c>
     </row>
@@ -8223,23 +8710,23 @@
         <v>133.69000199999999</v>
       </c>
       <c r="C141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.4714560139740792E-3</v>
       </c>
       <c r="D141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.1080948290086438E-6</v>
       </c>
       <c r="E141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>114</v>
       </c>
       <c r="F141" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.0392568040834502E-3</v>
       </c>
       <c r="G141" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.856406876905146E-8</v>
       </c>
     </row>
@@ -8251,23 +8738,23 @@
         <v>133.25</v>
       </c>
       <c r="C142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-3.2966389090591042E-3</v>
       </c>
       <c r="D142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.08678280967224E-5</v>
       </c>
       <c r="E142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>113</v>
       </c>
       <c r="F142" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.1992176885088947E-3</v>
       </c>
       <c r="G142" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>3.4768547882708257E-8</v>
       </c>
     </row>
@@ -8279,23 +8766,23 @@
         <v>132.699997</v>
       </c>
       <c r="C143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-4.1361443151774818E-3</v>
       </c>
       <c r="D143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.7107689795974999E-5</v>
       </c>
       <c r="E143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>112</v>
       </c>
       <c r="F143" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.3675975668514685E-3</v>
       </c>
       <c r="G143" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5.7611814531375102E-8</v>
       </c>
     </row>
@@ -8307,23 +8794,23 @@
         <v>130.03999300000001</v>
       </c>
       <c r="C144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-2.024887712466417E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.1001702480974789E-4</v>
       </c>
       <c r="E144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>111</v>
       </c>
       <c r="F144" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.5448395440541773E-3</v>
       </c>
       <c r="G144" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.453444563281037E-6</v>
       </c>
     </row>
@@ -8335,23 +8822,23 @@
         <v>131.91999799999999</v>
       </c>
       <c r="C145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.4353621484527547E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.0602644972109079E-4</v>
       </c>
       <c r="E145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>110</v>
       </c>
       <c r="F145" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.731410046372818E-3</v>
       </c>
       <c r="G145" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>7.6876916430780246E-7</v>
       </c>
     </row>
@@ -8363,23 +8850,23 @@
         <v>130.429993</v>
       </c>
       <c r="C146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.1359032377084096E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.2902761654364479E-4</v>
       </c>
       <c r="E146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>109</v>
       </c>
       <c r="F146" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.9278000488134927E-3</v>
       </c>
       <c r="G146" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5.0679467855841666E-7</v>
       </c>
     </row>
@@ -8391,23 +8878,23 @@
         <v>127.480003</v>
       </c>
       <c r="C147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-2.2877117631317105E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.2336251111711996E-4</v>
       </c>
       <c r="E147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>108</v>
       </c>
       <c r="F147" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.1345263671720978E-3</v>
       </c>
       <c r="G147" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.1638561018031325E-6</v>
       </c>
     </row>
@@ -8419,23 +8906,23 @@
         <v>127.94000200000001</v>
       </c>
       <c r="C148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.6019065720805086E-3</v>
       </c>
       <c r="D148">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.297373095399676E-5</v>
       </c>
       <c r="E148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>107</v>
       </c>
       <c r="F148" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.3521330180758934E-3</v>
       </c>
       <c r="G148" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5.6463402852522558E-8</v>
       </c>
     </row>
@@ -8447,23 +8934,23 @@
         <v>115.68</v>
       </c>
       <c r="C149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-0.10073366124386449</v>
       </c>
       <c r="D149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.0147270507593646E-2</v>
       </c>
       <c r="E149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>106</v>
       </c>
       <c r="F149" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.5811926506062021E-3</v>
       </c>
       <c r="G149" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>4.6486601073101077E-5</v>
       </c>
     </row>
@@ -8475,23 +8962,23 @@
         <v>115.879997</v>
       </c>
       <c r="C150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.7273886018442492E-3</v>
       </c>
       <c r="D150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.98387138178143E-6</v>
       </c>
       <c r="E150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>105</v>
       </c>
       <c r="F150" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.8223080532696872E-3</v>
       </c>
       <c r="G150" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.438914699428554E-8</v>
       </c>
     </row>
@@ -8503,23 +8990,23 @@
         <v>111.220001</v>
       </c>
       <c r="C151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-4.1044916261692363E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.6846851509293383E-3</v>
       </c>
       <c r="E151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>104</v>
       </c>
       <c r="F151" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>5.0761137402838812E-3</v>
       </c>
       <c r="G151" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>8.5516534426846373E-6</v>
       </c>
     </row>
@@ -8531,23 +9018,23 @@
         <v>126</v>
       </c>
       <c r="C152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0.12477167620087151</v>
       </c>
       <c r="D152">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5567971181975126E-2</v>
       </c>
       <c r="E152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>103</v>
       </c>
       <c r="F152" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>5.3432776213514534E-3</v>
       </c>
       <c r="G152" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>8.3183992026492019E-5</v>
       </c>
     </row>
@@ -8559,23 +9046,23 @@
         <v>125.44000200000001</v>
       </c>
       <c r="C153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-4.454334405502856E-3</v>
       </c>
       <c r="D153">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.9841094996046482E-5</v>
       </c>
       <c r="E153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>102</v>
       </c>
       <c r="F153" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>5.6245027593173199E-3</v>
       </c>
       <c r="G153" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.1159629355314051E-7</v>
       </c>
     </row>
@@ -8587,23 +9074,23 @@
         <v>121.66999800000001</v>
       </c>
       <c r="C154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-3.0515127184523427E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>9.3117298708764065E-4</v>
       </c>
       <c r="E154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>101</v>
       </c>
       <c r="F154" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>5.9205292203340209E-3</v>
       </c>
       <c r="G154" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5.51303687923809E-6</v>
       </c>
     </row>
@@ -8615,23 +9102,23 @@
         <v>126.610001</v>
       </c>
       <c r="C155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.9799058068980125E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.583965023178052E-3</v>
       </c>
       <c r="E155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="F155" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>6.2321360214042318E-3</v>
       </c>
       <c r="G155" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>9.8714854775923267E-6</v>
       </c>
     </row>
@@ -8643,23 +9130,23 @@
         <v>126.660004</v>
       </c>
       <c r="C156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.9485923846121487E-4</v>
       </c>
       <c r="D156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5591381819817054E-7</v>
       </c>
       <c r="E156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>99</v>
       </c>
       <c r="F156" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>6.5601431804255088E-3</v>
       </c>
       <c r="G156" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.022816971186831E-9</v>
       </c>
     </row>
@@ -8671,23 +9158,23 @@
         <v>129.11999499999999</v>
       </c>
       <c r="C157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.9235803129076693E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.7001612202059667E-4</v>
       </c>
       <c r="E157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>98</v>
       </c>
       <c r="F157" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>6.9054138741321139E-3</v>
       </c>
       <c r="G157" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.5551144626535893E-6</v>
       </c>
     </row>
@@ -8699,23 +9186,23 @@
         <v>127.44000200000001</v>
       </c>
       <c r="C158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.30964845025172E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.7151790632467318E-4</v>
       </c>
       <c r="E158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>97</v>
       </c>
       <c r="F158" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>7.268856709612752E-3</v>
       </c>
       <c r="G158" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.2467390842068321E-6</v>
       </c>
     </row>
@@ -8727,23 +9214,23 @@
         <v>128.490005</v>
       </c>
       <c r="C159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>8.2054379134698634E-3</v>
       </c>
       <c r="D159">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.7329211351808673E-5</v>
       </c>
       <c r="E159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>96</v>
       </c>
       <c r="F159" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>7.6514281153818439E-3</v>
       </c>
       <c r="G159" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5.1516462072371527E-7</v>
       </c>
     </row>
@@ -8755,23 +9242,23 @@
         <v>129.5</v>
       </c>
       <c r="C160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>7.829761930669709E-3</v>
       </c>
       <c r="D160">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.1305171890964648E-5</v>
       </c>
       <c r="E160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>95</v>
       </c>
       <c r="F160" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>8.054134858296676E-3</v>
       </c>
       <c r="G160" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>4.9376012192088788E-7</v>
       </c>
     </row>
@@ -8783,23 +9270,23 @@
         <v>129.33999600000001</v>
       </c>
       <c r="C161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.2363160473869577E-3</v>
       </c>
       <c r="D161">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5284773690265102E-6</v>
       </c>
       <c r="E161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>94</v>
       </c>
       <c r="F161" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>8.4780366929438702E-3</v>
       </c>
       <c r="G161" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.2958487218941062E-8</v>
       </c>
     </row>
@@ -8811,23 +9298,23 @@
         <v>129.770004</v>
       </c>
       <c r="C162">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.3191184806982653E-3</v>
       </c>
       <c r="D162">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.1016547488912761E-5</v>
       </c>
       <c r="E162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>93</v>
       </c>
       <c r="F162" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>8.9242491504672328E-3</v>
       </c>
       <c r="G162" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>9.8314414569011636E-8</v>
       </c>
     </row>
@@ -8839,23 +9326,23 @@
         <v>128.279999</v>
       </c>
       <c r="C163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.1548316543397059E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.333636149864982E-4</v>
       </c>
       <c r="E163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>92</v>
       </c>
       <c r="F163" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>9.3939464741760355E-3</v>
       </c>
       <c r="G163" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.2528106607857851E-6</v>
       </c>
     </row>
@@ -8867,23 +9354,23 @@
         <v>128.16999799999999</v>
       </c>
       <c r="C164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-8.578748920498267E-4</v>
       </c>
       <c r="D164">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>7.3594933040950181E-7</v>
       </c>
       <c r="E164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>91</v>
       </c>
       <c r="F164" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>9.8883647096589845E-3</v>
       </c>
       <c r="G164" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>7.2773353869184775E-9</v>
       </c>
     </row>
@@ -8895,23 +9382,23 @@
         <v>128.39999399999999</v>
       </c>
       <c r="C165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.7928523894308196E-3</v>
       </c>
       <c r="D165">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.2143196902877993E-6</v>
       </c>
       <c r="E165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>90</v>
       </c>
       <c r="F165" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.0408804957535772E-2</v>
       </c>
       <c r="G165" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>3.3457226727372489E-8</v>
       </c>
     </row>
@@ -8923,23 +9410,23 @@
         <v>129.36999499999999</v>
       </c>
       <c r="C166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>7.5261327540852583E-3</v>
       </c>
       <c r="D166">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.6642674232114954E-5</v>
       </c>
       <c r="E166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>89</v>
       </c>
       <c r="F166" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.0956636797406077E-2</v>
       </c>
       <c r="G166" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>6.2061320879507572E-7</v>
       </c>
     </row>
@@ -8951,23 +9438,23 @@
         <v>127.949997</v>
       </c>
       <c r="C167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.1036938121834363E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.2181400310520065E-4</v>
       </c>
       <c r="E167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>88</v>
       </c>
       <c r="F167" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.1533301892006397E-2</v>
       </c>
       <c r="G167" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.4049176724860837E-6</v>
       </c>
     </row>
@@ -8979,23 +9466,23 @@
         <v>128.21000699999999</v>
       </c>
       <c r="C168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.0300600033942521E-3</v>
       </c>
       <c r="D168">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.1211436173810712E-6</v>
       </c>
       <c r="E168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>87</v>
       </c>
       <c r="F168" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.2140317781059364E-2</v>
       </c>
       <c r="G168" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>5.0031993136390729E-8</v>
       </c>
     </row>
@@ -9007,23 +9494,23 @@
         <v>129.16999799999999</v>
       </c>
       <c r="C169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>7.4597515979196709E-3</v>
       </c>
       <c r="D169">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.5647893902665082E-5</v>
       </c>
       <c r="E169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>86</v>
       </c>
       <c r="F169" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.2779281874799332E-2</v>
       </c>
       <c r="G169" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>7.1114012192108418E-7</v>
       </c>
     </row>
@@ -9035,23 +9522,23 @@
         <v>128.759995</v>
       </c>
       <c r="C170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-3.1791831617812611E-3</v>
       </c>
       <c r="D170">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.0107205576153495E-5</v>
       </c>
       <c r="E170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>85</v>
       </c>
       <c r="F170" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.3451875657683507E-2</v>
       </c>
       <c r="G170" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.3596087265706222E-7</v>
       </c>
     </row>
@@ -9063,23 +9550,23 @@
         <v>127.769997</v>
       </c>
       <c r="C171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-7.7184184751297675E-3</v>
       </c>
       <c r="D171">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>5.9573983757224527E-5</v>
       </c>
       <c r="E171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>84</v>
       </c>
       <c r="F171" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.415986911335106E-2</v>
       </c>
       <c r="G171" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>8.4355981256320128E-7</v>
       </c>
     </row>
@@ -9091,23 +9578,23 @@
         <v>129.14999399999999</v>
       </c>
       <c r="C172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.0742723960699503E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.1540611809578723E-4</v>
       </c>
       <c r="E172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>83</v>
       </c>
       <c r="F172" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.49051253824748E-2</v>
       </c>
       <c r="G172" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.7201426601224026E-6</v>
       </c>
     </row>
@@ -9119,23 +9606,23 @@
         <v>128.949997</v>
       </c>
       <c r="C173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.5497640217187697E-3</v>
       </c>
       <c r="D173">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.4017685230139353E-6</v>
       </c>
       <c r="E173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>82</v>
       </c>
       <c r="F173" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.5689605665762947E-2</v>
       </c>
       <c r="G173" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>3.7682801026530541E-8</v>
       </c>
     </row>
@@ -9147,23 +9634,23 @@
         <v>129.320007</v>
       </c>
       <c r="C174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.8652979240005308E-3</v>
       </c>
       <c r="D174">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>8.2099321932817513E-6</v>
       </c>
       <c r="E174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>81</v>
       </c>
       <c r="F174" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.6515374385013628E-2</v>
       </c>
       <c r="G174" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.3559010384762419E-7</v>
       </c>
     </row>
@@ -9175,23 +9662,23 @@
         <v>128.070007</v>
       </c>
       <c r="C175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-9.7129628909345764E-3</v>
       </c>
       <c r="D175">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>9.4341648120672159E-5</v>
       </c>
       <c r="E175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>80</v>
       </c>
       <c r="F175" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.7384604615803819E-2</v>
       </c>
       <c r="G175" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.6400922513811768E-6</v>
       </c>
     </row>
@@ -9203,23 +9690,23 @@
         <v>127.05999799999999</v>
       </c>
       <c r="C176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-7.9176439977960041E-3</v>
       </c>
       <c r="D176">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.2689086475835087E-5</v>
       </c>
       <c r="E176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>79</v>
       </c>
       <c r="F176" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.8299583806109285E-2</v>
       </c>
       <c r="G176" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.1471841916929764E-6</v>
       </c>
     </row>
@@ -9231,23 +9718,23 @@
         <v>126.349998</v>
       </c>
       <c r="C177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-5.6035820926352096E-3</v>
       </c>
       <c r="D177">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.1400132268901992E-5</v>
       </c>
       <c r="E177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>78</v>
       </c>
       <c r="F177" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>1.926271979590451E-2</v>
       </c>
       <c r="G177" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>6.0485194945019843E-7</v>
       </c>
     </row>
@@ -9259,23 +9746,23 @@
         <v>124.989998</v>
       </c>
       <c r="C178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.0822099904306636E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.1711784633879371E-4</v>
       </c>
       <c r="E178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>77</v>
       </c>
       <c r="F178" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.0276547153583693E-2</v>
       </c>
       <c r="G178" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.3747455338147201E-6</v>
       </c>
     </row>
@@ -9287,23 +9774,23 @@
         <v>126.550003</v>
       </c>
       <c r="C179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.2403792596327739E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.5385407077271484E-4</v>
       </c>
       <c r="E179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>76</v>
       </c>
       <c r="F179" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.1343733845877573E-2</v>
       </c>
       <c r="G179" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>3.2838203376776371E-6</v>
       </c>
     </row>
@@ -9315,23 +9802,23 @@
         <v>127.360001</v>
       </c>
       <c r="C180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>6.3802192506537923E-3</v>
       </c>
       <c r="D180">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.0707197686413241E-5</v>
       </c>
       <c r="E180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>75</v>
       </c>
       <c r="F180" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.2467088258818501E-2</v>
       </c>
       <c r="G180" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>9.1457220318981856E-7</v>
       </c>
     </row>
@@ -9343,23 +9830,23 @@
         <v>126.5</v>
       </c>
       <c r="C181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-6.7754217802567336E-3</v>
       </c>
       <c r="D181">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.5906340300377325E-5</v>
       </c>
       <c r="E181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>74</v>
       </c>
       <c r="F181" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.364956658823E-2</v>
       </c>
       <c r="G181" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.0856650517557198E-6</v>
       </c>
     </row>
@@ -9371,23 +9858,23 @@
         <v>127.05999799999999</v>
       </c>
       <c r="C182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.4170919302171999E-3</v>
       </c>
       <c r="D182">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.9510701119989907E-5</v>
       </c>
       <c r="E182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>73</v>
       </c>
       <c r="F182" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.4894280619189475E-2</v>
       </c>
       <c r="G182" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>4.8570486875816314E-7</v>
       </c>
     </row>
@@ -9399,23 +9886,23 @@
         <v>127.07</v>
       </c>
       <c r="C183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>7.8715618650935853E-5</v>
       </c>
       <c r="D183">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.1961486195995606E-9</v>
       </c>
       <c r="E183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>72</v>
       </c>
       <c r="F183" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.6204505914936286E-2</v>
       </c>
       <c r="G183" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.62367013152121E-10</v>
       </c>
     </row>
@@ -9427,23 +9914,23 @@
         <v>127.459999</v>
       </c>
       <c r="C184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.0644663241064262E-3</v>
       </c>
       <c r="D184">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>9.3909538515823529E-6</v>
       </c>
       <c r="E184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>71</v>
       </c>
       <c r="F184" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.7583690436775037E-2</v>
       </c>
       <c r="G184" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.5903716394808784E-7</v>
       </c>
     </row>
@@ -9455,23 +9942,23 @@
         <v>127.900002</v>
       </c>
       <c r="C185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.4461421814640366E-3</v>
       </c>
       <c r="D185">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>1.1875895934865709E-5</v>
       </c>
       <c r="E185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>70</v>
       </c>
       <c r="F185" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>2.903546361765794E-2</v>
       </c>
       <c r="G185" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>3.4482214434388514E-7</v>
       </c>
     </row>
@@ -9483,23 +9970,23 @@
         <v>128.16999799999999</v>
       </c>
       <c r="C186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.1087679154435362E-3</v>
       </c>
       <c r="D186">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.4469021212040766E-6</v>
       </c>
       <c r="E186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>69</v>
       </c>
       <c r="F186" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.0563645913324146E-2</v>
       </c>
       <c r="G186" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.3591354184369144E-7</v>
       </c>
     </row>
@@ -9511,23 +9998,23 @@
         <v>128.55999800000001</v>
       </c>
       <c r="C187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.038213734861898E-3</v>
       </c>
       <c r="D187">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>9.230742698703483E-6</v>
       </c>
       <c r="E187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>68</v>
       </c>
       <c r="F187" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.2172258856130675E-2</v>
       </c>
       <c r="G187" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.9697384353702668E-7</v>
       </c>
     </row>
@@ -9539,23 +10026,23 @@
         <v>128.279999</v>
       </c>
       <c r="C188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-2.1803388428119452E-3</v>
       </c>
       <c r="D188">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.7538774694745322E-6</v>
       </c>
       <c r="E188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>67</v>
       </c>
       <c r="F188" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.3865535638032296E-2</v>
       </c>
       <c r="G188" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.6099260686132855E-7</v>
       </c>
     </row>
@@ -9567,23 +10054,23 @@
         <v>127.639999</v>
       </c>
       <c r="C189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-5.0015734539985693E-3</v>
       </c>
       <c r="D189">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.5015737015743178E-5</v>
       </c>
       <c r="E189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>66</v>
       </c>
       <c r="F189" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.5647932250560309E-2</v>
       </c>
       <c r="G189" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>8.9175929833504656E-7</v>
       </c>
     </row>
@@ -9595,23 +10082,23 @@
         <v>127.68</v>
       </c>
       <c r="C190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.133401259905657E-4</v>
       </c>
       <c r="D190">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>9.8182034555783583E-8</v>
       </c>
       <c r="E190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>65</v>
       </c>
       <c r="F190" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.7524139211116116E-2</v>
       </c>
       <c r="G190" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>3.6841963327018363E-9</v>
       </c>
     </row>
@@ -9623,23 +10110,23 @@
         <v>127.279999</v>
       </c>
       <c r="C191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-3.1377575286611892E-3</v>
       </c>
       <c r="D191">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>9.8455223086699726E-6</v>
       </c>
       <c r="E191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>64</v>
       </c>
       <c r="F191" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>3.9499093906438021E-2</v>
       </c>
       <c r="G191" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>3.8888921022808573E-7</v>
       </c>
     </row>
@@ -9651,23 +10138,23 @@
         <v>127.010002</v>
       </c>
       <c r="C192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-2.1235369098179259E-3</v>
       </c>
       <c r="D192">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>4.5094090073590663E-6</v>
       </c>
       <c r="E192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>63</v>
       </c>
       <c r="F192" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.1577993585724227E-2</v>
       </c>
       <c r="G192" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.8749217878338232E-7</v>
       </c>
     </row>
@@ -9679,23 +10166,23 @@
         <v>127.660004</v>
       </c>
       <c r="C193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>5.1046718981199975E-3</v>
       </c>
       <c r="D193">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>2.6057675187456019E-5</v>
       </c>
       <c r="E193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>62</v>
       </c>
       <c r="F193" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.3766309037604451E-2</v>
       </c>
       <c r="G193" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.1404482650557176E-6</v>
       </c>
     </row>
@@ -9707,23 +10194,23 @@
         <v>127.980003</v>
       </c>
       <c r="C194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.5035139913369858E-3</v>
       </c>
       <c r="D194">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>6.2675823048200449E-6</v>
       </c>
       <c r="E194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>61</v>
       </c>
       <c r="F194" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.606979898695205E-2</v>
       </c>
       <c r="G194" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>2.8874625691723711E-7</v>
       </c>
     </row>
@@ -9735,23 +10222,23 @@
         <v>125.69000200000001</v>
       </c>
       <c r="C195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>-1.8055451303565659E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>3.2599932177543084E-4</v>
       </c>
       <c r="E195">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>60</v>
       </c>
       <c r="F195" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>4.8494525249423222E-2</v>
       </c>
       <c r="G195" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>1.5809182341133475E-5</v>
       </c>
     </row>
@@ -9763,23 +10250,23 @@
         <v>126.360001</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C254" si="15">+LN(B196/B195)</f>
+        <f t="shared" ref="C196:C254" si="25">+LN(B196/B195)</f>
         <v>5.3164099988702758E-3</v>
       </c>
       <c r="D196">
-        <f t="shared" ref="D196:D254" si="16">+C196^2</f>
+        <f t="shared" ref="D196:D254" si="26">+C196^2</f>
         <v>2.8264215276087845E-5</v>
       </c>
       <c r="E196">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>59</v>
       </c>
       <c r="F196" s="5">
-        <f t="shared" ref="F196:F254" si="17">+$J$5^(E196-1)</f>
+        <f t="shared" ref="F196:F254" si="27">+$J$5^(E196-1)</f>
         <v>5.1046868683603391E-2</v>
       </c>
       <c r="G196" s="4">
-        <f t="shared" ref="G196:G254" si="18">+F196*D196</f>
+        <f t="shared" ref="G196:G254" si="28">+F196*D196</f>
         <v>1.4427996856435532E-6</v>
       </c>
     </row>
@@ -9791,23 +10278,23 @@
         <v>125.07</v>
       </c>
       <c r="C197">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.0261403286965991E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0529639741775645E-4</v>
       </c>
       <c r="E197">
-        <f t="shared" ref="E197:E254" si="19">+E196-1</f>
+        <f t="shared" ref="E197:E254" si="29">+E196-1</f>
         <v>58</v>
       </c>
       <c r="F197" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>5.3733545982740404E-2</v>
       </c>
       <c r="G197" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5.6579488124639243E-6</v>
       </c>
     </row>
@@ -9819,23 +10306,23 @@
         <v>125.370003</v>
       </c>
       <c r="C198">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.3958084962879436E-3</v>
       </c>
       <c r="D198">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>5.7398983508854976E-6</v>
       </c>
       <c r="E198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>57</v>
       </c>
       <c r="F198" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>5.6561627350253066E-2</v>
       </c>
       <c r="G198" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.2465799155111761E-7</v>
       </c>
     </row>
@@ -9847,23 +10334,23 @@
         <v>127.540001</v>
       </c>
       <c r="C199">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.7160659670699893E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.9448824033358575E-4</v>
       </c>
       <c r="E199">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>56</v>
       </c>
       <c r="F199" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>5.9538555105529543E-2</v>
       </c>
       <c r="G199" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.7533404325031622E-5</v>
       </c>
     </row>
@@ -9875,23 +10362,23 @@
         <v>127.82</v>
       </c>
       <c r="C200">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.1929754943326154E-3</v>
       </c>
       <c r="D200">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>4.8091415187433793E-6</v>
       </c>
       <c r="E200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>55</v>
       </c>
       <c r="F200" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>6.2672163268978454E-2</v>
       </c>
       <c r="G200" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.0139930244630806E-7</v>
       </c>
     </row>
@@ -9903,23 +10390,23 @@
         <v>128.13000500000001</v>
       </c>
       <c r="C201">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.4223883222158162E-3</v>
       </c>
       <c r="D201">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>5.8679651836075572E-6</v>
       </c>
       <c r="E201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>54</v>
       </c>
       <c r="F201" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>6.5970698177872072E-2</v>
       </c>
       <c r="G201" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.8711376004603583E-7</v>
       </c>
     </row>
@@ -9931,23 +10418,23 @@
         <v>128.5</v>
       </c>
       <c r="C202">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.8834917909230464E-3</v>
       </c>
       <c r="D202">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>8.3145249083205976E-6</v>
       </c>
       <c r="E202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>53</v>
       </c>
       <c r="F202" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>6.9442840187233748E-2</v>
       </c>
       <c r="G202" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5.7738422444128164E-7</v>
       </c>
     </row>
@@ -9959,23 +10446,23 @@
         <v>117.029999</v>
       </c>
       <c r="C203">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-9.3498600693417269E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>8.7419883316270878E-3</v>
       </c>
       <c r="E203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>52</v>
       </c>
       <c r="F203" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>7.3097726512877631E-2</v>
       </c>
       <c r="G203" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>6.3901947224404422E-4</v>
       </c>
     </row>
@@ -9987,23 +10474,23 @@
         <v>114.239998</v>
       </c>
       <c r="C204">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-2.4128822557585996E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>5.8220007801547077E-4</v>
       </c>
       <c r="E204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>51</v>
       </c>
       <c r="F204" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>7.6944975276713304E-2</v>
       </c>
       <c r="G204" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4.4797370609000958E-5</v>
       </c>
     </row>
@@ -10015,23 +10502,23 @@
         <v>114.529999</v>
       </c>
       <c r="C205">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.5353075940167829E-3</v>
       </c>
       <c r="D205">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.4277845962791686E-6</v>
       </c>
       <c r="E205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>50</v>
       </c>
       <c r="F205" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>8.0994710817592949E-2</v>
       </c>
       <c r="G205" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5.2061655457340971E-7</v>
       </c>
     </row>
@@ -10043,23 +10530,23 @@
         <v>121.989998</v>
       </c>
       <c r="C206">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6.3102269087571508E-2</v>
       </c>
       <c r="D206">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.9818963640002826E-3</v>
       </c>
       <c r="E206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>49</v>
       </c>
       <c r="F206" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>8.5257590334308367E-2</v>
       </c>
       <c r="G206" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.3948688895560814E-4</v>
       </c>
     </row>
@@ -10071,23 +10558,23 @@
         <v>122.18</v>
       </c>
       <c r="C207">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.5563094557612691E-3</v>
       </c>
       <c r="D207">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.4220991220919374E-6</v>
       </c>
       <c r="E207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>48</v>
       </c>
       <c r="F207" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>8.9744831930850921E-2</v>
       </c>
       <c r="G207" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.1737087863200249E-7</v>
       </c>
     </row>
@@ -10099,23 +10586,23 @@
         <v>124.55999799999999</v>
       </c>
       <c r="C208">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.9292144247602803E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.7218682967031394E-4</v>
       </c>
       <c r="E208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>47</v>
       </c>
       <c r="F208" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>9.44682441377378E-2</v>
       </c>
       <c r="G208" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.5159836290145851E-5</v>
       </c>
     </row>
@@ -10127,23 +10614,23 @@
         <v>121.050003</v>
       </c>
       <c r="C209">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-2.8583803302009082E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>8.1703381120794532E-4</v>
       </c>
       <c r="E209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>46</v>
       </c>
       <c r="F209" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>9.9440256987092426E-2</v>
       </c>
       <c r="G209" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>8.1246052153661639E-5</v>
       </c>
     </row>
@@ -10155,23 +10642,23 @@
         <v>119.470001</v>
       </c>
       <c r="C210">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.3138405967780131E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.7261771137420056E-4</v>
       </c>
       <c r="E210">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>45</v>
       </c>
       <c r="F210" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.10467395472325518</v>
       </c>
       <c r="G210" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.8068578504814999E-5</v>
       </c>
     </row>
@@ -10183,23 +10670,23 @@
         <v>119.120003</v>
       </c>
       <c r="C211">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-2.9338886389936427E-3</v>
       </c>
       <c r="D211">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>8.6077025460159686E-6</v>
       </c>
       <c r="E211">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>44</v>
       </c>
       <c r="F211" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.11018311023500546</v>
       </c>
       <c r="G211" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>9.484234384978146E-7</v>
       </c>
     </row>
@@ -10211,23 +10698,23 @@
         <v>120.099998</v>
       </c>
       <c r="C212">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>8.193298872707434E-3</v>
       </c>
       <c r="D212">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.7130146417508911E-5</v>
       </c>
       <c r="E212">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>43</v>
       </c>
       <c r="F212" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.11598222130000577</v>
       </c>
       <c r="G212" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>7.7859034976973077E-6</v>
       </c>
     </row>
@@ -10239,23 +10726,23 @@
         <v>120.760002</v>
       </c>
       <c r="C213">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5.4804089672650094E-3</v>
       </c>
       <c r="D213">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.0034882448478728E-5</v>
       </c>
       <c r="E213">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>42</v>
       </c>
       <c r="F213" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.12208654873684816</v>
       </c>
       <c r="G213" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.6668551398517035E-6</v>
       </c>
     </row>
@@ -10267,23 +10754,23 @@
         <v>121.489998</v>
       </c>
       <c r="C214">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6.026817003977121E-3</v>
       </c>
       <c r="D214">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.6322523199427761E-5</v>
       </c>
       <c r="E214">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>41</v>
       </c>
       <c r="F214" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.12851215656510334</v>
       </c>
       <c r="G214" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4.6678857882444591E-6</v>
       </c>
     </row>
@@ -10295,23 +10782,23 @@
         <v>120.900002</v>
       </c>
       <c r="C215">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-4.8681642410463508E-3</v>
       </c>
       <c r="D215">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.3699023077802393E-5</v>
       </c>
       <c r="E215">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="F215" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.13527595427905614</v>
       </c>
       <c r="G215" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.2059079623310929E-6</v>
       </c>
     </row>
@@ -10323,23 +10810,23 @@
         <v>120.879997</v>
       </c>
       <c r="C216">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.6548101686152038E-4</v>
       </c>
       <c r="D216">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.7383966941522792E-8</v>
       </c>
       <c r="E216">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>39</v>
       </c>
       <c r="F216" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.14239574134637487</v>
       </c>
       <c r="G216" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.8993602736427597E-9</v>
       </c>
     </row>
@@ -10351,23 +10838,23 @@
         <v>121.910004</v>
       </c>
       <c r="C217">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>8.4848072416619149E-3</v>
       </c>
       <c r="D217">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>7.1991953928158479E-5</v>
       </c>
       <c r="E217">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>38</v>
       </c>
       <c r="F217" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.14989025404881567</v>
       </c>
       <c r="G217" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.0790892263762308E-5</v>
       </c>
     </row>
@@ -10379,23 +10866,23 @@
         <v>121.94000200000001</v>
       </c>
       <c r="C218">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.4603649303446887E-4</v>
       </c>
       <c r="D218">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.0533955904700247E-8</v>
       </c>
       <c r="E218">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>37</v>
       </c>
       <c r="F218" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.15777921478822701</v>
       </c>
       <c r="G218" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>9.5510000306687624E-9</v>
       </c>
     </row>
@@ -10407,23 +10894,23 @@
         <v>121.44000200000001</v>
       </c>
       <c r="C219">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-4.1088067648210203E-3</v>
       </c>
       <c r="D219">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6882293030638981E-5</v>
       </c>
       <c r="E219">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>36</v>
       </c>
       <c r="F219" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.16608338398760736</v>
       </c>
       <c r="G219" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.8038683559989212E-6</v>
       </c>
     </row>
@@ -10435,23 +10922,23 @@
         <v>120.349998</v>
       </c>
       <c r="C220">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-9.0161825054740838E-3</v>
       </c>
       <c r="D220">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>8.1291546972016933E-5</v>
       </c>
       <c r="E220">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>35</v>
       </c>
       <c r="F220" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.17482461472379726</v>
       </c>
       <c r="G220" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.4211763379684328E-5</v>
       </c>
     </row>
@@ -10463,23 +10950,23 @@
         <v>119.57</v>
       </c>
       <c r="C221">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-6.5021736793953334E-3</v>
       </c>
       <c r="D221">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>4.227826255702145E-5</v>
       </c>
       <c r="E221">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>34</v>
       </c>
       <c r="F221" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.18402591023557605</v>
       </c>
       <c r="G221" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>7.7802957502345459E-6</v>
       </c>
     </row>
@@ -10491,23 +10978,23 @@
         <v>120.30999799999999</v>
       </c>
       <c r="C222">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6.1697544902223865E-3</v>
       </c>
       <c r="D222">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.80658704696193E-5</v>
       </c>
       <c r="E222">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>33</v>
       </c>
       <c r="F222" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.19371148445850112</v>
       </c>
       <c r="G222" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>7.3737962758749755E-6</v>
       </c>
     </row>
@@ -10519,23 +11006,23 @@
         <v>121.94000200000001</v>
       </c>
       <c r="C223">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.3457408459468028E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.8110184244496166E-4</v>
       </c>
       <c r="E223">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>32</v>
       </c>
       <c r="F223" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.20390682574579064</v>
       </c>
       <c r="G223" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.6927901829666426E-5</v>
       </c>
     </row>
@@ -10547,23 +11034,23 @@
         <v>122.230003</v>
       </c>
       <c r="C224">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.3754034518848619E-3</v>
       </c>
       <c r="D224">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>5.6425415592265172E-6</v>
       </c>
       <c r="E224">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>31</v>
       </c>
       <c r="F224" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.21463876394293749</v>
       </c>
       <c r="G224" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.2111081457690349E-6</v>
       </c>
     </row>
@@ -10575,23 +11062,23 @@
         <v>122.220001</v>
       </c>
       <c r="C225">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-8.1832684327442056E-5</v>
       </c>
       <c r="D225">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.6965882242347804E-9</v>
       </c>
       <c r="E225">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>30</v>
       </c>
       <c r="F225" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.2259355409925658</v>
       </c>
       <c r="G225" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.5129972832469305E-9</v>
       </c>
     </row>
@@ -10603,23 +11090,23 @@
         <v>122.910004</v>
       </c>
       <c r="C226">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5.6297051222905297E-3</v>
       </c>
       <c r="D226">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.1693579763944226E-5</v>
       </c>
       <c r="E226">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>29</v>
       </c>
       <c r="F226" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.23782688525533241</v>
       </c>
       <c r="G226" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>7.5375853578502887E-6</v>
       </c>
     </row>
@@ -10631,23 +11118,23 @@
         <v>122.010002</v>
       </c>
       <c r="C227">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-7.3493877916851495E-3</v>
       </c>
       <c r="D227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>5.4013500912570719E-5</v>
       </c>
       <c r="E227">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>28</v>
       </c>
       <c r="F227" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.2503440897424552</v>
       </c>
       <c r="G227" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.352196071976079E-5</v>
       </c>
     </row>
@@ -10659,23 +11146,23 @@
         <v>121.58000199999999</v>
       </c>
       <c r="C228">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-3.5305262086914838E-3</v>
       </c>
       <c r="D228">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.2464615310257462E-5</v>
       </c>
       <c r="E228">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>27</v>
       </c>
       <c r="F228" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.26352009446574232</v>
       </c>
       <c r="G228" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.2846766040381846E-6</v>
       </c>
     </row>
@@ -10687,23 +11174,23 @@
         <v>120.989998</v>
       </c>
       <c r="C229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-4.8646177475556805E-3</v>
       </c>
       <c r="D229">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.3664505829833703E-5</v>
       </c>
       <c r="E229">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>26</v>
       </c>
       <c r="F229" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.27738957312183399</v>
       </c>
       <c r="G229" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>6.5642871702767229E-6</v>
       </c>
     </row>
@@ -10715,23 +11202,23 @@
         <v>121.300003</v>
       </c>
       <c r="C230">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.5589596589787674E-3</v>
       </c>
       <c r="D230">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.5482745362807292E-6</v>
       </c>
       <c r="E230">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="F230" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.29198902433877266</v>
       </c>
       <c r="G230" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.912024292951039E-6</v>
       </c>
     </row>
@@ -10743,23 +11230,23 @@
         <v>121.16999800000001</v>
       </c>
       <c r="C231">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.0723389443780971E-3</v>
       </c>
       <c r="D231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.1499108116299318E-6</v>
       </c>
       <c r="E231">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>24</v>
       </c>
       <c r="F231" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.30735686772502385</v>
       </c>
       <c r="G231" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.5343298522571574E-7</v>
       </c>
     </row>
@@ -10771,23 +11258,23 @@
         <v>121.739998</v>
       </c>
       <c r="C232">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>4.6931048996287318E-3</v>
       </c>
       <c r="D232">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.202523359891921E-5</v>
       </c>
       <c r="E232">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>23</v>
       </c>
       <c r="F232" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.32353354497370929</v>
       </c>
       <c r="G232" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>7.1259019051323814E-6</v>
       </c>
     </row>
@@ -10799,23 +11286,23 @@
         <v>122.5</v>
       </c>
       <c r="C233">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6.2234233474575589E-3</v>
       </c>
       <c r="D233">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.8730998161679847E-5</v>
       </c>
       <c r="E233">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="F233" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.34056162628811509</v>
       </c>
       <c r="G233" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.3190291721703684E-5</v>
       </c>
     </row>
@@ -10827,23 +11314,23 @@
         <v>122.019997</v>
       </c>
       <c r="C234">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-3.9260888472090211E-3</v>
       </c>
       <c r="D234">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.5414173636179062E-5</v>
       </c>
       <c r="E234">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>21</v>
       </c>
       <c r="F234" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.35848592240854216</v>
       </c>
       <c r="G234" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5.5257642541310832E-6</v>
       </c>
     </row>
@@ -10855,23 +11342,23 @@
         <v>121.75</v>
       </c>
       <c r="C235">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-2.2151791748734806E-3</v>
       </c>
       <c r="D235">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>4.9070187767931542E-6</v>
       </c>
       <c r="E235">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="F235" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.37735360253530753</v>
       </c>
       <c r="G235" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.8516812131312949E-6</v>
       </c>
     </row>
@@ -10883,23 +11370,23 @@
         <v>121.410004</v>
       </c>
       <c r="C236">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-2.7964814606004666E-3</v>
       </c>
       <c r="D236">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>7.8203085594821182E-6</v>
       </c>
       <c r="E236">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="F236" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.39721431845821847</v>
       </c>
       <c r="G236" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>3.1063385345876618E-6</v>
       </c>
     </row>
@@ -10911,23 +11398,23 @@
         <v>122.25</v>
       </c>
       <c r="C237">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>6.8948478528828381E-3</v>
       </c>
       <c r="D237">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>4.7538926914403086E-5</v>
       </c>
       <c r="E237">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="F237" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.41812033521917735</v>
       </c>
       <c r="G237" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.987699205741019E-5</v>
       </c>
     </row>
@@ -10939,23 +11426,23 @@
         <v>121.650002</v>
       </c>
       <c r="C238">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-4.9200426848415944E-3</v>
       </c>
       <c r="D238">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.4206820020663285E-5</v>
       </c>
       <c r="E238">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="F238" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.44012666865176564</v>
       </c>
       <c r="G238" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.0654067054347397E-5</v>
       </c>
     </row>
@@ -10967,23 +11454,23 @@
         <v>121.610001</v>
       </c>
       <c r="C239">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-3.288744542236654E-4</v>
       </c>
       <c r="D239">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.0815840664091379E-7</v>
       </c>
       <c r="E239">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="F239" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.46329123015975332</v>
       </c>
       <c r="G239" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5.0108841264787781E-8</v>
       </c>
     </row>
@@ -10995,23 +11482,23 @@
         <v>121.410004</v>
       </c>
       <c r="C240">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.6459307138174519E-3</v>
       </c>
       <c r="D240">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.7090879146876265E-6</v>
       </c>
       <c r="E240">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="F240" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.48767497911552976</v>
       </c>
       <c r="G240" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.3211543922174222E-6</v>
       </c>
     </row>
@@ -11023,23 +11510,23 @@
         <v>125</v>
       </c>
       <c r="C241">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.9140456800202521E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>8.4916622252446939E-4</v>
       </c>
       <c r="E241">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
       <c r="F241" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.51334208327950503</v>
       </c>
       <c r="G241" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4.3591275772129884E-4</v>
       </c>
     </row>
@@ -11051,23 +11538,23 @@
         <v>124.949997</v>
       </c>
       <c r="C242">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-4.0010403094391949E-4</v>
       </c>
       <c r="D242">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6008323557757289E-7</v>
       </c>
       <c r="E242">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="F242" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.54036008766263688</v>
       </c>
       <c r="G242" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>8.6502591210015839E-8</v>
       </c>
     </row>
@@ -11079,23 +11566,23 @@
         <v>124.900002</v>
       </c>
       <c r="C243">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-4.0020012701512322E-4</v>
       </c>
       <c r="D243">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.6016014166292076E-7</v>
       </c>
       <c r="E243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="F243" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.56880009227645989</v>
       </c>
       <c r="G243" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>9.1099103356880223E-8</v>
       </c>
     </row>
@@ -11107,23 +11594,23 @@
         <v>124.650002</v>
       </c>
       <c r="C244">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-2.003607129849528E-3</v>
       </c>
       <c r="D244">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>4.0144415307838635E-6</v>
       </c>
       <c r="E244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="F244" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.5987369392383789</v>
       </c>
       <c r="G244" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.403594434892963E-6</v>
       </c>
     </row>
@@ -11135,23 +11622,23 @@
         <v>125.360001</v>
       </c>
       <c r="C245">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>5.6797800102988804E-3</v>
       </c>
       <c r="D245">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>3.2259900965390751E-5</v>
       </c>
       <c r="E245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="F245" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.6302494097246093</v>
       </c>
       <c r="G245" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.0331783541211875E-5</v>
       </c>
     </row>
@@ -11163,23 +11650,23 @@
         <v>125.470001</v>
       </c>
       <c r="C246">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>8.7708811684946146E-4</v>
       </c>
       <c r="D246">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>7.6928356471853453E-7</v>
       </c>
       <c r="E246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="F246" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.66342043128906247</v>
       </c>
       <c r="G246" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>5.1035843428915758E-7</v>
       </c>
     </row>
@@ -11191,23 +11678,23 @@
         <v>125.519997</v>
       </c>
       <c r="C247">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>3.9839038256221101E-4</v>
       </c>
       <c r="D247">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>1.5871489691806483E-7</v>
       </c>
       <c r="E247">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="F247" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.69833729609374995</v>
       </c>
       <c r="G247" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.1083653196355965E-7</v>
       </c>
     </row>
@@ -11219,23 +11706,23 @@
         <v>125.209999</v>
       </c>
       <c r="C248">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-2.472764829929518E-3</v>
       </c>
       <c r="D248">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>6.1145659041363586E-6</v>
       </c>
       <c r="E248">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="F248" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.73509189062499991</v>
       </c>
       <c r="G248" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>4.4947678108227575E-6</v>
       </c>
     </row>
@@ -11247,23 +11734,23 @@
         <v>125.029999</v>
       </c>
       <c r="C249">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.4386191854459157E-3</v>
       </c>
       <c r="D249">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.06962516073307E-6</v>
       </c>
       <c r="E249">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="F249" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.77378093749999999</v>
       </c>
       <c r="G249" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>1.6014364971456231E-6</v>
       </c>
     </row>
@@ -11275,23 +11762,23 @@
         <v>124.82</v>
       </c>
       <c r="C250">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.6810010029309156E-3</v>
       </c>
       <c r="D250">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.8257643718547441E-6</v>
       </c>
       <c r="E250">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="F250" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.81450624999999999</v>
       </c>
       <c r="G250" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.3016027419030131E-6</v>
       </c>
     </row>
@@ -11303,23 +11790,23 @@
         <v>125.18</v>
       </c>
       <c r="C251">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>2.8800019906585479E-3</v>
       </c>
       <c r="D251">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>8.2944114661971982E-6</v>
       </c>
       <c r="E251">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="F251" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.85737499999999989</v>
       </c>
       <c r="G251" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>7.1114210308308221E-6</v>
       </c>
     </row>
@@ -11331,23 +11818,23 @@
         <v>124.980003</v>
       </c>
       <c r="C252">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.5989529917795136E-3</v>
       </c>
       <c r="D252">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.5566506699206572E-6</v>
       </c>
       <c r="E252">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="F252" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.90249999999999997</v>
       </c>
       <c r="G252" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.3073772296033928E-6</v>
       </c>
     </row>
@@ -11359,23 +11846,23 @@
         <v>125</v>
       </c>
       <c r="C253">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>1.599887975251649E-4</v>
       </c>
       <c r="D253">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.559641533354821E-8</v>
       </c>
       <c r="E253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="F253" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.95</v>
       </c>
       <c r="G253" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.4316594566870799E-8</v>
       </c>
     </row>
@@ -11387,23 +11874,23 @@
         <v>124.800003</v>
       </c>
       <c r="C254">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-1.601257328512531E-3</v>
       </c>
       <c r="D254">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>2.5640250321150877E-6</v>
       </c>
       <c r="E254">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F254" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G254" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>2.5640250321150877E-6</v>
       </c>
     </row>
@@ -11420,6 +11907,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="T7:W7"/>
+  </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
   <drawing r:id="rId1"/>
 </worksheet>
